--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -9,12 +9,13 @@
     <sheet name="tc003" r:id="rId3" sheetId="1"/>
     <sheet name="AddTest" r:id="rId4" sheetId="2"/>
     <sheet name="tc001" r:id="rId5" sheetId="3"/>
+    <sheet name="tc004" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="18">
   <si>
     <t/>
   </si>
@@ -388,4 +389,27 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -10,12 +10,13 @@
     <sheet name="AddTest" r:id="rId4" sheetId="2"/>
     <sheet name="tc001" r:id="rId5" sheetId="3"/>
     <sheet name="tc004" r:id="rId6" sheetId="4"/>
+    <sheet name="tc007" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="20">
   <si>
     <t/>
   </si>
@@ -69,6 +70,12 @@
   </si>
   <si>
     <t>Label Name</t>
+  </si>
+  <si>
+    <t>Epic name</t>
+  </si>
+  <si>
+    <t>Please Select</t>
   </si>
 </sst>
 </file>
@@ -412,4 +419,33 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -11,12 +11,13 @@
     <sheet name="tc001" r:id="rId5" sheetId="3"/>
     <sheet name="tc004" r:id="rId6" sheetId="4"/>
     <sheet name="tc007" r:id="rId7" sheetId="5"/>
+    <sheet name="tc009" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="21">
   <si>
     <t/>
   </si>
@@ -76,6 +77,9 @@
   </si>
   <si>
     <t>Please Select</t>
+  </si>
+  <si>
+    <t>Hi</t>
   </si>
 </sst>
 </file>
@@ -448,4 +452,27 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -11,13 +11,12 @@
     <sheet name="tc001" r:id="rId5" sheetId="3"/>
     <sheet name="tc004" r:id="rId6" sheetId="4"/>
     <sheet name="tc007" r:id="rId7" sheetId="5"/>
-    <sheet name="tc009" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="20">
   <si>
     <t/>
   </si>
@@ -77,9 +76,6 @@
   </si>
   <si>
     <t>Please Select</t>
-  </si>
-  <si>
-    <t>Hi</t>
   </si>
 </sst>
 </file>
@@ -452,27 +448,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -12,12 +12,13 @@
     <sheet name="tc004" r:id="rId6" sheetId="4"/>
     <sheet name="tc007" r:id="rId7" sheetId="5"/>
     <sheet name="tc009" r:id="rId8" sheetId="6"/>
+    <sheet name="tc018" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="24">
   <si>
     <t/>
   </si>
@@ -80,6 +81,15 @@
   </si>
   <si>
     <t>Hi</t>
+  </si>
+  <si>
+    <t>Epic Name</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>expectedSelectedEpic</t>
   </si>
 </sst>
 </file>
@@ -475,4 +485,39 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -13,12 +13,14 @@
     <sheet name="tc007" r:id="rId7" sheetId="5"/>
     <sheet name="tc009" r:id="rId8" sheetId="6"/>
     <sheet name="tc018" r:id="rId9" sheetId="7"/>
+    <sheet name="tc028" r:id="rId10" sheetId="8"/>
+    <sheet name="tc029" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="27">
   <si>
     <t/>
   </si>
@@ -90,6 +92,15 @@
   </si>
   <si>
     <t>expectedSelectedEpic</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -520,4 +531,50 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -11,12 +11,13 @@
     <sheet name="tc001" r:id="rId5" sheetId="3"/>
     <sheet name="tc004" r:id="rId6" sheetId="4"/>
     <sheet name="tc007" r:id="rId7" sheetId="5"/>
+    <sheet name="tc011" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="20">
   <si>
     <t/>
   </si>
@@ -448,4 +449,33 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -15,12 +15,13 @@
     <sheet name="tc018" r:id="rId9" sheetId="7"/>
     <sheet name="tc028" r:id="rId10" sheetId="8"/>
     <sheet name="tc029" r:id="rId11" sheetId="9"/>
+    <sheet name="tc011" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="27">
   <si>
     <t/>
   </si>
@@ -341,6 +342,35 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G2"/>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -12,12 +12,16 @@
     <sheet name="tc004" r:id="rId6" sheetId="4"/>
     <sheet name="tc007" r:id="rId7" sheetId="5"/>
     <sheet name="tc009" r:id="rId8" sheetId="6"/>
+    <sheet name="tc011" r:id="rId9" sheetId="7"/>
+    <sheet name="tc018" r:id="rId10" sheetId="8"/>
+    <sheet name="tc028" r:id="rId11" sheetId="9"/>
+    <sheet name="tc029" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -80,6 +84,18 @@
   </si>
   <si>
     <t>Hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epic </t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -320,6 +336,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G2"/>
@@ -475,4 +514,91 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -11,13 +11,17 @@
     <sheet name="tc001" r:id="rId5" sheetId="3"/>
     <sheet name="tc004" r:id="rId6" sheetId="4"/>
     <sheet name="tc007" r:id="rId7" sheetId="5"/>
-    <sheet name="tc011" r:id="rId8" sheetId="6"/>
+    <sheet name="tc009" r:id="rId8" sheetId="6"/>
+    <sheet name="tc011" r:id="rId9" sheetId="7"/>
+    <sheet name="tc018" r:id="rId10" sheetId="8"/>
+    <sheet name="tc028" r:id="rId11" sheetId="9"/>
+    <sheet name="tc029" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -77,6 +81,21 @@
   </si>
   <si>
     <t>Please Select</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epic </t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -317,6 +336,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G2"/>
@@ -453,6 +495,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -461,7 +526,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>4</v>
@@ -472,7 +537,65 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>0</v>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\TestNext\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127F5C3A-AF33-43BE-81F0-7D73F9C712FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
@@ -25,20 +19,51 @@
     <sheet name="tc028" sheetId="9" r:id="rId10"/>
     <sheet name="tc029" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
+  <si>
+    <t>Epic Count</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Epic Count</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>next feature</t>
+  </si>
+  <si>
+    <t>Epic Mohit</t>
+  </si>
+  <si>
+    <t>Mohit Feature</t>
+  </si>
+  <si>
+    <t>Feature Mohit</t>
   </si>
   <si>
     <t>Epic</t>
@@ -62,12 +87,6 @@
     <t>QA</t>
   </si>
   <si>
-    <t>Epic Mohit</t>
-  </si>
-  <si>
-    <t>Feature Mohit</t>
-  </si>
-  <si>
     <t>RQ-469</t>
   </si>
   <si>
@@ -105,42 +124,373 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>epic</t>
-  </si>
-  <si>
-    <t>feature</t>
-  </si>
-  <si>
-    <t>next feature</t>
-  </si>
-  <si>
-    <t>Mohit Feature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -148,24 +498,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -214,7 +850,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -247,26 +883,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -299,23 +918,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,517 +1059,553 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E9E000-5BD1-461C-A705-1E8BA8B0A68B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="18.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\TestNext\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127F5C3A-AF33-43BE-81F0-7D73F9C712FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF08B3AE-8856-408C-A93B-FF2016D0ED20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
     <sheet name="tc034" sheetId="11" r:id="rId2"/>
-    <sheet name="AddTest" sheetId="2" r:id="rId3"/>
-    <sheet name="tc001" sheetId="3" r:id="rId4"/>
-    <sheet name="tc004" sheetId="4" r:id="rId5"/>
-    <sheet name="tc007" sheetId="5" r:id="rId6"/>
-    <sheet name="tc009" sheetId="6" r:id="rId7"/>
-    <sheet name="tc011" sheetId="7" r:id="rId8"/>
-    <sheet name="tc018" sheetId="8" r:id="rId9"/>
-    <sheet name="tc028" sheetId="9" r:id="rId10"/>
-    <sheet name="tc029" sheetId="10" r:id="rId11"/>
+    <sheet name="tc039" sheetId="12" r:id="rId3"/>
+    <sheet name="AddTest" sheetId="2" r:id="rId4"/>
+    <sheet name="tc001" sheetId="3" r:id="rId5"/>
+    <sheet name="tc004" sheetId="4" r:id="rId6"/>
+    <sheet name="tc007" sheetId="5" r:id="rId7"/>
+    <sheet name="tc009" sheetId="6" r:id="rId8"/>
+    <sheet name="tc011" sheetId="7" r:id="rId9"/>
+    <sheet name="tc018" sheetId="8" r:id="rId10"/>
+    <sheet name="tc028" sheetId="9" r:id="rId11"/>
+    <sheet name="tc029" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
   <si>
     <t/>
   </si>
@@ -117,6 +118,18 @@
   </si>
   <si>
     <t>Mohit Feature</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>RQ-489</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>TC-427</t>
   </si>
 </sst>
 </file>
@@ -665,6 +678,41 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -687,7 +735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -714,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E9E000-5BD1-461C-A705-1E8BA8B0A68B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -752,6 +800,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998ED6CD-E9DD-4DD9-B549-BAC935E06FB0}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -810,7 +906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -833,7 +929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -856,7 +952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -885,7 +981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -908,7 +1004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -935,39 +1031,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\TestNext\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FA4A64-9804-4574-A4E6-FD9F33BFB132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF08B3AE-8856-408C-A93B-FF2016D0ED20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
     <sheet name="tc034" sheetId="11" r:id="rId2"/>
-    <sheet name="AddTest" sheetId="2" r:id="rId3"/>
-    <sheet name="tc039" sheetId="13" r:id="rId4"/>
+    <sheet name="tc039" sheetId="12" r:id="rId3"/>
+    <sheet name="AddTest" sheetId="2" r:id="rId4"/>
     <sheet name="tc001" sheetId="3" r:id="rId5"/>
     <sheet name="tc004" sheetId="4" r:id="rId6"/>
     <sheet name="tc007" sheetId="5" r:id="rId7"/>
@@ -800,6 +800,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998ED6CD-E9DD-4DD9-B549-BAC935E06FB0}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -851,54 +899,6 @@
       </c>
       <c r="G2" t="s">
         <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0418674B-5F02-4098-93C0-1CA5F96C88E9}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6200" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="6200" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="tc007" sheetId="5" r:id="rId5"/>
     <sheet name="tc009" sheetId="6" r:id="rId6"/>
     <sheet name="tc035" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="tc040" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
   <si>
     <t>Epic Count</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>RQ-437</t>
+  </si>
+  <si>
+    <t>TestcaseId</t>
+  </si>
+  <si>
+    <t>TC-447</t>
   </si>
 </sst>
 </file>
@@ -725,9 +731,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1643,7 +1652,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1671,14 +1680,34 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\TestNext\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF08B3AE-8856-408C-A93B-FF2016D0ED20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FA4A64-9804-4574-A4E6-FD9F33BFB132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
     <sheet name="tc034" sheetId="11" r:id="rId2"/>
-    <sheet name="tc039" sheetId="12" r:id="rId3"/>
-    <sheet name="AddTest" sheetId="2" r:id="rId4"/>
+    <sheet name="AddTest" sheetId="2" r:id="rId3"/>
+    <sheet name="tc039" sheetId="13" r:id="rId4"/>
     <sheet name="tc001" sheetId="3" r:id="rId5"/>
     <sheet name="tc004" sheetId="4" r:id="rId6"/>
     <sheet name="tc007" sheetId="5" r:id="rId7"/>
@@ -800,21 +800,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998ED6CD-E9DD-4DD9-B549-BAC935E06FB0}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -822,6 +815,72 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0418674B-5F02-4098-93C0-1CA5F96C88E9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
       <c r="D1" t="s">
@@ -833,72 +892,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="1" activeTab="10"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="tc018" sheetId="8" r:id="rId9"/>
     <sheet name="tc028" sheetId="9" r:id="rId10"/>
     <sheet name="tc029" sheetId="10" r:id="rId11"/>
+    <sheet name="tc035" sheetId="13" r:id="rId12"/>
+    <sheet name="tc040" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
   <si>
     <t>Epic Count</t>
   </si>
@@ -124,6 +126,18 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>r-id</t>
+  </si>
+  <si>
+    <t>RQ-437</t>
+  </si>
+  <si>
+    <t>t-id</t>
+  </si>
+  <si>
+    <t>TC-447</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1310,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1314,6 +1328,66 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="3" activeTab="12"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="tc029" sheetId="10" r:id="rId11"/>
     <sheet name="tc035" sheetId="13" r:id="rId12"/>
     <sheet name="tc040" sheetId="14" r:id="rId13"/>
+    <sheet name="tc039" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
   <si>
     <t>Epic Count</t>
   </si>
@@ -138,6 +139,18 @@
   </si>
   <si>
     <t>TC-447</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>RQ-489</t>
+  </si>
+  <si>
+    <t>TC-427</t>
   </si>
 </sst>
 </file>
@@ -758,8 +771,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1364,7 +1380,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -1384,6 +1400,55 @@
       </c>
       <c r="B2" t="s">
         <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="13.8181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" ht="29" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -8,30 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\TestNext\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF08B3AE-8856-408C-A93B-FF2016D0ED20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C0C110-5E0D-4114-9554-0695C0F6A1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
     <sheet name="tc034" sheetId="11" r:id="rId2"/>
     <sheet name="tc039" sheetId="12" r:id="rId3"/>
-    <sheet name="AddTest" sheetId="2" r:id="rId4"/>
-    <sheet name="tc001" sheetId="3" r:id="rId5"/>
-    <sheet name="tc004" sheetId="4" r:id="rId6"/>
-    <sheet name="tc007" sheetId="5" r:id="rId7"/>
-    <sheet name="tc009" sheetId="6" r:id="rId8"/>
-    <sheet name="tc011" sheetId="7" r:id="rId9"/>
-    <sheet name="tc018" sheetId="8" r:id="rId10"/>
-    <sheet name="tc028" sheetId="9" r:id="rId11"/>
-    <sheet name="tc029" sheetId="10" r:id="rId12"/>
+    <sheet name="tc045" sheetId="13" r:id="rId4"/>
+    <sheet name="AddTest" sheetId="2" r:id="rId5"/>
+    <sheet name="tc001" sheetId="3" r:id="rId6"/>
+    <sheet name="tc004" sheetId="4" r:id="rId7"/>
+    <sheet name="tc007" sheetId="5" r:id="rId8"/>
+    <sheet name="tc009" sheetId="6" r:id="rId9"/>
+    <sheet name="tc011" sheetId="7" r:id="rId10"/>
+    <sheet name="tc018" sheetId="8" r:id="rId11"/>
+    <sheet name="tc028" sheetId="9" r:id="rId12"/>
+    <sheet name="tc029" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="35">
   <si>
     <t/>
   </si>
@@ -130,6 +131,12 @@
   </si>
   <si>
     <t>TC-427</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>Sample desc</t>
   </si>
 </sst>
 </file>
@@ -678,6 +685,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -712,7 +748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -735,7 +771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -803,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998ED6CD-E9DD-4DD9-B549-BAC935E06FB0}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,7 +869,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -848,6 +884,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7EE808-7924-4ACF-BC0A-6BD2FF03439D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -906,7 +991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -929,7 +1014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -952,7 +1037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -981,7 +1066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1002,33 +1087,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="4" activeTab="13"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="tc035" sheetId="13" r:id="rId12"/>
     <sheet name="tc040" sheetId="14" r:id="rId13"/>
     <sheet name="tc039" sheetId="15" r:id="rId14"/>
+    <sheet name="tc047" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
   <si>
     <t>Epic Count</t>
   </si>
@@ -151,6 +152,9 @@
   </si>
   <si>
     <t>TC-427</t>
+  </si>
+  <si>
+    <t>Req-id</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1417,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1437,7 +1441,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" ht="29" spans="1:4">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1449,6 +1453,33 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\TestNext\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C0C110-5E0D-4114-9554-0695C0F6A1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43F1B77-8002-4802-9356-5E660ECC9F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
     <sheet name="tc034" sheetId="11" r:id="rId2"/>
     <sheet name="tc039" sheetId="12" r:id="rId3"/>
     <sheet name="tc045" sheetId="13" r:id="rId4"/>
-    <sheet name="AddTest" sheetId="2" r:id="rId5"/>
-    <sheet name="tc001" sheetId="3" r:id="rId6"/>
-    <sheet name="tc004" sheetId="4" r:id="rId7"/>
-    <sheet name="tc007" sheetId="5" r:id="rId8"/>
-    <sheet name="tc009" sheetId="6" r:id="rId9"/>
-    <sheet name="tc011" sheetId="7" r:id="rId10"/>
-    <sheet name="tc018" sheetId="8" r:id="rId11"/>
-    <sheet name="tc028" sheetId="9" r:id="rId12"/>
-    <sheet name="tc029" sheetId="10" r:id="rId13"/>
+    <sheet name="tc046" sheetId="14" r:id="rId5"/>
+    <sheet name="AddTest" sheetId="2" r:id="rId6"/>
+    <sheet name="tc001" sheetId="3" r:id="rId7"/>
+    <sheet name="tc004" sheetId="4" r:id="rId8"/>
+    <sheet name="tc007" sheetId="5" r:id="rId9"/>
+    <sheet name="tc009" sheetId="6" r:id="rId10"/>
+    <sheet name="tc011" sheetId="7" r:id="rId11"/>
+    <sheet name="tc018" sheetId="8" r:id="rId12"/>
+    <sheet name="tc028" sheetId="9" r:id="rId13"/>
+    <sheet name="tc029" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
   <si>
     <t/>
   </si>
@@ -137,6 +138,12 @@
   </si>
   <si>
     <t>Sample desc</t>
+  </si>
+  <si>
+    <t>Mohit Aman</t>
+  </si>
+  <si>
+    <t>QAuser</t>
   </si>
 </sst>
 </file>
@@ -685,6 +692,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -713,7 +743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -748,7 +778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -771,7 +801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -887,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7EE808-7924-4ACF-BC0A-6BD2FF03439D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -933,6 +963,62 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD462B0F-31BB-4A6F-B852-2EF59DF3AE37}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -991,7 +1077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1014,7 +1100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1037,7 +1123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1064,27 +1150,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="5" activeTab="14"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="6" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="tc040" sheetId="14" r:id="rId13"/>
     <sheet name="tc039" sheetId="15" r:id="rId14"/>
     <sheet name="tc047" sheetId="16" r:id="rId15"/>
+    <sheet name="tc045" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
   <si>
     <t>Epic Count</t>
   </si>
@@ -155,6 +156,12 @@
   </si>
   <si>
     <t>Req-id</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>Sample desc</t>
   </si>
 </sst>
 </file>
@@ -775,8 +782,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1428,30 +1438,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1466,7 +1476,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1480,6 +1490,51 @@
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:D2 C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" ht="29" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="29" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6800" firstSheet="1" activeTab="10"/>
+    <workbookView windowWidth="18600" windowHeight="6800" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="tc028" sheetId="9" r:id="rId9"/>
     <sheet name="tc029" sheetId="10" r:id="rId10"/>
     <sheet name="tc044" sheetId="11" r:id="rId11"/>
+    <sheet name="tc042" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
   <si>
     <t>Epic Count</t>
   </si>
@@ -118,6 +120,15 @@
   </si>
   <si>
     <t>RQ-437</t>
+  </si>
+  <si>
+    <t>requirementID</t>
+  </si>
+  <si>
+    <t>TestcaseId</t>
+  </si>
+  <si>
+    <t>TC-367</t>
   </si>
 </sst>
 </file>
@@ -592,7 +603,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1508,7 +1519,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -1525,6 +1536,59 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="9.90909090909091" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="4" activeTab="13"/>
+    <workbookView windowWidth="19200" windowHeight="6200" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="tc035" sheetId="13" r:id="rId12"/>
     <sheet name="tc040" sheetId="14" r:id="rId13"/>
     <sheet name="tc039" sheetId="15" r:id="rId14"/>
+    <sheet name="tc049" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
   <si>
     <t>Epic Count</t>
   </si>
@@ -151,6 +152,15 @@
   </si>
   <si>
     <t>TC-427</t>
+  </si>
+  <si>
+    <t>requirementId</t>
+  </si>
+  <si>
+    <t>TestcaseId</t>
+  </si>
+  <si>
+    <t>TC-456</t>
   </si>
 </sst>
 </file>
@@ -158,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -629,16 +639,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,7 +794,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1354,7 +1364,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1380,8 +1390,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1413,7 +1423,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1437,7 +1447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" ht="29" spans="1:4">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1449,6 +1459,43 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="11.8181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -1556,10 +1556,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="29" spans="1:5">
       <c r="A1" s="1" t="s">

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="7" activeTab="16"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
@@ -789,11 +789,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1445,30 +1442,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1483,8 +1480,8 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1511,36 +1508,36 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:D2 C7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" ht="29" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1555,7 +1552,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1564,7 +1561,7 @@
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -14,12 +14,13 @@
     <sheet name="tc011" r:id="rId8" sheetId="6"/>
     <sheet name="tc051" r:id="rId9" sheetId="7"/>
     <sheet name="tc052" r:id="rId10" sheetId="8"/>
+    <sheet name="tc059" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="33">
   <si>
     <t/>
   </si>
@@ -112,6 +113,12 @@
   </si>
   <si>
     <t>SET Drive</t>
+  </si>
+  <si>
+    <t>tcId</t>
+  </si>
+  <si>
+    <t>TC-369</t>
   </si>
 </sst>
 </file>
@@ -601,4 +608,33 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\TestNext\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3972F16D-BFD2-4084-A3C2-7DDF2B71E870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
@@ -24,26 +30,14 @@
     <sheet name="tc047" sheetId="16" r:id="rId15"/>
     <sheet name="tc045" sheetId="17" r:id="rId16"/>
     <sheet name="tc046" sheetId="18" r:id="rId17"/>
+    <sheet name="tc056" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="45">
   <si>
     <t>Epic Count</t>
   </si>
@@ -170,18 +164,21 @@
   <si>
     <t>Mohit Aman</t>
   </si>
+  <si>
+    <t>tcName</t>
+  </si>
+  <si>
+    <t>tcid</t>
+  </si>
+  <si>
+    <t>TC-09</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -189,353 +186,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -543,251 +203,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -795,61 +213,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1107,26 +481,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:1">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1159,7 +531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1167,7 +539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1175,7 +547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1186,7 +558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1197,7 +569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1205,7 +577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1213,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1221,12 +593,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1234,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1242,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1250,7 +622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1308,20 +680,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1335,20 +703,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1362,20 +728,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1389,20 +753,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1422,26 +784,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="13.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" spans="1:4">
+    <row r="1" spans="1:4" ht="29">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1471,20 +831,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1498,22 +856,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" ht="29" spans="1:4">
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1527,7 +883,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" ht="29" spans="1:4">
+    <row r="2" spans="1:4" ht="29">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1543,20 +899,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
@@ -1578,7 +932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" ht="29" spans="1:5">
+    <row r="2" spans="1:5" ht="29">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1597,23 +951,75 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A914B6B3-8177-405A-80F4-B6F1672CEC97}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="11.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1640,20 +1046,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1703,20 +1105,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1730,20 +1128,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1757,20 +1151,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1790,20 +1180,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1817,20 +1203,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1850,20 +1232,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1889,6 +1267,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\TestNext\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3972F16D-BFD2-4084-A3C2-7DDF2B71E870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE728EF-7915-4376-B6B8-302FEBAC17B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,14 @@
     <sheet name="tc045" sheetId="17" r:id="rId16"/>
     <sheet name="tc046" sheetId="18" r:id="rId17"/>
     <sheet name="tc056" sheetId="19" r:id="rId18"/>
+    <sheet name="tc057" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
   <si>
     <t>Epic Count</t>
   </si>
@@ -159,19 +160,19 @@
     <t>Sample desc</t>
   </si>
   <si>
-    <t>QAuser</t>
+    <t>tcName</t>
+  </si>
+  <si>
+    <t>tcid</t>
+  </si>
+  <si>
+    <t>TC-09</t>
+  </si>
+  <si>
+    <t>Qauser</t>
   </si>
   <si>
     <t>Mohit Aman</t>
-  </si>
-  <si>
-    <t>tcName</t>
-  </si>
-  <si>
-    <t>tcid</t>
-  </si>
-  <si>
-    <t>TC-09</t>
   </si>
 </sst>
 </file>
@@ -907,12 +908,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="4" max="5" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -929,10 +933,10 @@
         <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="29">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -946,7 +950,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -958,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A914B6B3-8177-405A-80F4-B6F1672CEC97}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -980,10 +984,10 @@
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.5" customHeight="1">
@@ -1000,7 +1004,62 @@
         <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1685A75E-F6FF-49D7-9AA5-5D7E3FB1849E}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="7" activeTab="14"/>
+    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="9" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="tc047" sheetId="16" r:id="rId15"/>
     <sheet name="tc045" sheetId="17" r:id="rId16"/>
     <sheet name="tc046" sheetId="18" r:id="rId17"/>
+    <sheet name="tc053" sheetId="19" r:id="rId18"/>
+    <sheet name="tc058" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="50">
   <si>
     <t>Epic Count</t>
   </si>
@@ -169,6 +171,30 @@
   </si>
   <si>
     <t>Mohit Aman</t>
+  </si>
+  <si>
+    <t>req-id</t>
+  </si>
+  <si>
+    <t>expected page</t>
+  </si>
+  <si>
+    <t>test-id</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>automationType</t>
+  </si>
+  <si>
+    <t>TC-369</t>
   </si>
 </sst>
 </file>
@@ -1480,8 +1506,8 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1593,6 +1619,114 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="14.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="14.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="16.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="9" activeTab="18"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
     <sheet name="tc047" sheetId="16" r:id="rId15"/>
     <sheet name="tc045" sheetId="17" r:id="rId16"/>
     <sheet name="tc046" sheetId="18" r:id="rId17"/>
-    <sheet name="tc053" sheetId="19" r:id="rId18"/>
-    <sheet name="tc058" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
   <si>
     <t>Epic Count</t>
   </si>
@@ -171,30 +169,6 @@
   </si>
   <si>
     <t>Mohit Aman</t>
-  </si>
-  <si>
-    <t>req-id</t>
-  </si>
-  <si>
-    <t>expected page</t>
-  </si>
-  <si>
-    <t>test-id</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>automationType</t>
-  </si>
-  <si>
-    <t>TC-369</t>
   </si>
 </sst>
 </file>
@@ -815,8 +789,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1468,30 +1445,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1507,7 +1484,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1534,36 +1511,36 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C7" sqref="A1:D2 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" ht="29" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1578,16 +1555,13 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="29" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1619,114 +1593,6 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="14.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="14.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="14.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="16.4545454545455" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="7" activeTab="14"/>
+    <workbookView windowWidth="19200" windowHeight="6200" firstSheet="8" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="tc047" sheetId="16" r:id="rId15"/>
     <sheet name="tc045" sheetId="17" r:id="rId16"/>
     <sheet name="tc046" sheetId="18" r:id="rId17"/>
+    <sheet name="tc063" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="45">
   <si>
     <t>Epic Count</t>
   </si>
@@ -169,6 +170,15 @@
   </si>
   <si>
     <t>Mohit Aman</t>
+  </si>
+  <si>
+    <t>requirementId</t>
+  </si>
+  <si>
+    <t>testcaseId</t>
+  </si>
+  <si>
+    <t>TC-458</t>
   </si>
 </sst>
 </file>
@@ -176,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -647,16 +657,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,7 +812,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1480,7 +1490,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1593,6 +1603,43 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="15.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\TestNext\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70B47DA-53CF-48C2-AE7C-F6BA207189EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="9" activeTab="18"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
@@ -26,26 +32,15 @@
     <sheet name="tc046" sheetId="18" r:id="rId17"/>
     <sheet name="tc053" sheetId="19" r:id="rId18"/>
     <sheet name="tc058" sheetId="20" r:id="rId19"/>
+    <sheet name="tc057" sheetId="21" r:id="rId20"/>
+    <sheet name="tc056" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="54">
   <si>
     <t>Epic Count</t>
   </si>
@@ -199,18 +194,21 @@
   <si>
     <t>TC-25559</t>
   </si>
+  <si>
+    <t>tcid</t>
+  </si>
+  <si>
+    <t>tcName</t>
+  </si>
+  <si>
+    <t>TC-09</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -220,351 +218,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -572,313 +240,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1136,26 +519,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:1">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1188,7 +569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1196,7 +577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1204,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1215,7 +596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1226,7 +607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1234,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1242,7 +623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1250,12 +631,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1263,7 +644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1271,7 +652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1279,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1337,20 +718,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1364,20 +741,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1391,20 +766,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1418,20 +791,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1451,26 +822,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="13.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" spans="1:4">
+    <row r="1" spans="1:4" ht="29">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1500,20 +869,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1527,22 +894,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="A1:D2 C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" ht="29" spans="1:4">
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1556,7 +921,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" ht="29" spans="1:4">
+    <row r="2" spans="1:4" ht="29">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1572,22 +937,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" ht="29" spans="1:5">
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1604,7 +967,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" ht="29" spans="1:5">
+    <row r="2" spans="1:5" ht="29">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1623,23 +986,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="19.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="10.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="19.90625" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1672,24 +1033,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="13.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="13.0909090909091" customWidth="1"/>
-    <col min="6" max="6" width="19.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1734,23 +1093,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1777,20 +1134,120 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974F70A6-A5D7-441B-8CBF-A189FDEA02B6}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B9E855-F30E-4AD9-BF82-606089D546B0}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1840,20 +1297,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1867,20 +1320,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1894,20 +1343,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1927,20 +1372,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1954,20 +1395,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1987,20 +1424,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2026,6 +1459,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6200" firstSheet="8" activeTab="17"/>
+    <workbookView windowWidth="19200" windowHeight="6200" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="tc003" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="tc045" sheetId="17" r:id="rId16"/>
     <sheet name="tc046" sheetId="18" r:id="rId17"/>
     <sheet name="tc063" sheetId="19" r:id="rId18"/>
+    <sheet name="tc049" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
   <si>
     <t>Epic Count</t>
   </si>
@@ -179,6 +180,9 @@
   </si>
   <si>
     <t>TC-458</t>
+  </si>
+  <si>
+    <t>TC-459</t>
   </si>
 </sst>
 </file>
@@ -1408,8 +1412,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1616,8 +1620,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1640,6 +1644,39 @@
       </c>
       <c r="B2" t="s">
         <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -7,21 +7,34 @@
   </bookViews>
   <sheets>
     <sheet name="tc003" r:id="rId3" sheetId="1"/>
-    <sheet name="AddTest" r:id="rId4" sheetId="2"/>
-    <sheet name="tc001" r:id="rId5" sheetId="3"/>
-    <sheet name="tc004" r:id="rId6" sheetId="4"/>
-    <sheet name="tc007" r:id="rId7" sheetId="5"/>
-    <sheet name="tc011" r:id="rId8" sheetId="6"/>
-    <sheet name="tc051" r:id="rId9" sheetId="7"/>
-    <sheet name="tc052" r:id="rId10" sheetId="8"/>
-    <sheet name="tc059" r:id="rId11" sheetId="9"/>
-    <sheet name="tc066" r:id="rId12" sheetId="10"/>
+    <sheet name="tc034" r:id="rId4" sheetId="2"/>
+    <sheet name="AddTest" r:id="rId5" sheetId="3"/>
+    <sheet name="tc001" r:id="rId6" sheetId="4"/>
+    <sheet name="tc004" r:id="rId7" sheetId="5"/>
+    <sheet name="tc007" r:id="rId8" sheetId="6"/>
+    <sheet name="tc009" r:id="rId9" sheetId="7"/>
+    <sheet name="tc011" r:id="rId10" sheetId="8"/>
+    <sheet name="tc018" r:id="rId11" sheetId="9"/>
+    <sheet name="tc028" r:id="rId12" sheetId="10"/>
+    <sheet name="tc029" r:id="rId13" sheetId="11"/>
+    <sheet name="tc035" r:id="rId14" sheetId="12"/>
+    <sheet name="tc040" r:id="rId15" sheetId="13"/>
+    <sheet name="tc039" r:id="rId16" sheetId="14"/>
+    <sheet name="tc047" r:id="rId17" sheetId="15"/>
+    <sheet name="tc045" r:id="rId18" sheetId="16"/>
+    <sheet name="tc046" r:id="rId19" sheetId="17"/>
+    <sheet name="tc041" r:id="rId20" sheetId="18"/>
+    <sheet name="tc051" r:id="rId21" sheetId="19"/>
+    <sheet name="tc052" r:id="rId22" sheetId="20"/>
+    <sheet name="tc059" r:id="rId23" sheetId="21"/>
+    <sheet name="tc066" r:id="rId24" sheetId="22"/>
+    <sheet name="tc067" r:id="rId25" sheetId="23"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="60">
   <si>
     <t/>
   </si>
@@ -32,6 +45,24 @@
     <t>7</t>
   </si>
   <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>next feature</t>
+  </si>
+  <si>
+    <t>Epic Mohit</t>
+  </si>
+  <si>
+    <t>Mohit Feature</t>
+  </si>
+  <si>
+    <t>Feature Mohit</t>
+  </si>
+  <si>
     <t>Epic</t>
   </si>
   <si>
@@ -53,12 +84,6 @@
     <t>QA</t>
   </si>
   <si>
-    <t>Epic Mohit</t>
-  </si>
-  <si>
-    <t>Feature Mohit</t>
-  </si>
-  <si>
     <t>RQ-469</t>
   </si>
   <si>
@@ -83,28 +108,91 @@
     <t>Please Select</t>
   </si>
   <si>
-    <t>RqId</t>
-  </si>
-  <si>
-    <t>TcName</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Qauser</t>
-  </si>
-  <si>
-    <t>Precondition</t>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epic </t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>r-id</t>
   </si>
   <si>
     <t>RQ-437</t>
   </si>
   <si>
-    <t>New_TC</t>
-  </si>
-  <si>
-    <t>New_Description</t>
+    <t>t-id</t>
+  </si>
+  <si>
+    <t>TC-447</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>RQ-489</t>
+  </si>
+  <si>
+    <t>TC-427</t>
+  </si>
+  <si>
+    <t>Req-id</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>Sample desc</t>
+  </si>
+  <si>
+    <t>QAuser</t>
+  </si>
+  <si>
+    <t>Mohit Aman</t>
+  </si>
+  <si>
+    <t>rqName</t>
+  </si>
+  <si>
+    <t>tcName</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>qaUser</t>
+  </si>
+  <si>
+    <t>preCondition</t>
+  </si>
+  <si>
+    <t>New_tc</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
   <si>
     <t>Manual</t>
@@ -113,22 +201,19 @@
     <t>Vivek Rajput</t>
   </si>
   <si>
+    <t>NewTC</t>
+  </si>
+  <si>
     <t>na</t>
   </si>
   <si>
-    <t>RqTitle</t>
+    <t>rqTitle</t>
   </si>
   <si>
     <t>SET Drive</t>
   </si>
   <si>
     <t>tcId</t>
-  </si>
-  <si>
-    <t>TC-369</t>
-  </si>
-  <si>
-    <t>Rq_id</t>
   </si>
 </sst>
 </file>
@@ -379,12 +464,357 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -394,7 +824,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,262 +840,342 @@
       <c r="C1" t="s" s="0">
         <v>5</v>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="D1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E1" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s" s="0">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="C2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>11</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="G1" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
